--- a/cus.xlsx
+++ b/cus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="275">
   <si>
     <t>Name</t>
   </si>
@@ -32,343 +32,814 @@
     <t>LicenseNo</t>
   </si>
   <si>
-    <t>Mayur Chimurkar</t>
-  </si>
-  <si>
-    <t>mayuraish@gmail.com</t>
+    <t>Shashank Greddy</t>
+  </si>
+  <si>
+    <t>sashank.greddy@gmail.com</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>DevOps Project Certification</t>
-  </si>
-  <si>
-    <t>DPC20111600</t>
-  </si>
-  <si>
-    <t>Ashok Thota</t>
-  </si>
-  <si>
-    <t>ashok.thota62@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111601</t>
-  </si>
-  <si>
-    <t>Nnair</t>
-  </si>
-  <si>
-    <t>nnair1@uncc.edu</t>
-  </si>
-  <si>
-    <t>DPC20111602</t>
-  </si>
-  <si>
-    <t>Doel Sengupta</t>
-  </si>
-  <si>
-    <t>doels11@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111603</t>
-  </si>
-  <si>
-    <t>Vanjariaj</t>
-  </si>
-  <si>
-    <t>vanjariaj@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111604</t>
-  </si>
-  <si>
-    <t>Nagaraj Ms</t>
-  </si>
-  <si>
-    <t>nagarajnms@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111605</t>
-  </si>
-  <si>
-    <t>Anu Rasmika</t>
-  </si>
-  <si>
-    <t>anuc562@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111606</t>
-  </si>
-  <si>
-    <t>Abhilash Nag</t>
-  </si>
-  <si>
-    <t>abhiinag@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111607</t>
-  </si>
-  <si>
-    <t>Akshay Vyas</t>
-  </si>
-  <si>
-    <t>akshayvyas29@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111608</t>
-  </si>
-  <si>
-    <t>Sudarshan Chandrashekar</t>
-  </si>
-  <si>
-    <t>cspesit@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111609</t>
-  </si>
-  <si>
-    <t>Sanjay Hingorani</t>
-  </si>
-  <si>
-    <t>sanjay_hingorani@yahoo.com</t>
-  </si>
-  <si>
-    <t>DPC20111610</t>
-  </si>
-  <si>
-    <t>Santosh Doulager</t>
-  </si>
-  <si>
-    <t>santosh.doulager@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111611</t>
-  </si>
-  <si>
-    <t>Sanyerra</t>
-  </si>
-  <si>
-    <t>sanyerra@in.ibm.com</t>
-  </si>
-  <si>
-    <t>DPC20111612</t>
-  </si>
-  <si>
-    <t>Praveen Kumar Mamindla</t>
-  </si>
-  <si>
-    <t>ladu0807@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111613</t>
-  </si>
-  <si>
-    <t>Ravi Teja</t>
-  </si>
-  <si>
-    <t>ravi.pr48@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111614</t>
-  </si>
-  <si>
-    <t>Avinash</t>
-  </si>
-  <si>
-    <t>aattipal@my.bridgeport.edu</t>
-  </si>
-  <si>
-    <t>DPC20111615</t>
-  </si>
-  <si>
-    <t>Manideep Gurumurthy</t>
-  </si>
-  <si>
-    <t>gurumurthymanideep@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111616</t>
-  </si>
-  <si>
-    <t>Harpinder Mailme.</t>
-  </si>
-  <si>
-    <t>mailme.harpinder@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111617</t>
-  </si>
-  <si>
-    <t>Sajidnic</t>
-  </si>
-  <si>
-    <t>sajidnic@yahoo.com</t>
-  </si>
-  <si>
-    <t>DPC20111618</t>
-  </si>
-  <si>
-    <t>Gurunadh Kavi</t>
-  </si>
-  <si>
-    <t>gurusri.kavi@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111619</t>
-  </si>
-  <si>
-    <t>Arvind Sharma</t>
-  </si>
-  <si>
-    <t>arvind.lucknow@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111620</t>
-  </si>
-  <si>
-    <t>Venkata Motireddy</t>
-  </si>
-  <si>
-    <t>yeshwanthreddy77@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111621</t>
-  </si>
-  <si>
-    <t>Madhan Kumar Rajaram</t>
-  </si>
-  <si>
-    <t>madhankumar388@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111622</t>
-  </si>
-  <si>
-    <t>Hemlatha</t>
-  </si>
-  <si>
-    <t>hemabkasturi@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111623</t>
-  </si>
-  <si>
-    <t>Yethendra Paida</t>
-  </si>
-  <si>
-    <t>yethendra@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111624</t>
-  </si>
-  <si>
-    <t>Shwetank Verma</t>
-  </si>
-  <si>
-    <t>shwetz888@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111625</t>
-  </si>
-  <si>
-    <t>Sandeep</t>
-  </si>
-  <si>
-    <t>sundeepbobba@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111626</t>
-  </si>
-  <si>
-    <t>Mohan</t>
-  </si>
-  <si>
-    <t>rrcmohand@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111627</t>
-  </si>
-  <si>
-    <t>Kaushik</t>
-  </si>
-  <si>
-    <t>kaushikosr22@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111628</t>
-  </si>
-  <si>
-    <t>Junaid</t>
-  </si>
-  <si>
-    <t>junaid.ahmed455@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111629</t>
-  </si>
-  <si>
-    <t>Nisha</t>
-  </si>
-  <si>
-    <t>yadav.nisha0912@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111630</t>
-  </si>
-  <si>
-    <t>Shayan</t>
-  </si>
-  <si>
-    <t>shayan.ray@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111631</t>
-  </si>
-  <si>
-    <t>Sairam</t>
-  </si>
-  <si>
-    <t>sairamreddy.adelli@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111632</t>
-  </si>
-  <si>
-    <t>Santosh</t>
-  </si>
-  <si>
-    <t>r.santhoshreddy@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111633</t>
-  </si>
-  <si>
-    <t>Quatesting</t>
-  </si>
-  <si>
-    <t>onlineetraining@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111634</t>
+    <t>BIG Data &amp; Hadoop 2.x Foundation</t>
+  </si>
+  <si>
+    <t>BDHF12011600</t>
+  </si>
+  <si>
+    <t>Prasanth Devara</t>
+  </si>
+  <si>
+    <t>prashanthdevaraj91@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011601</t>
+  </si>
+  <si>
+    <t>Bhavuk Taneja</t>
+  </si>
+  <si>
+    <t>bhavuk.bits@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011602</t>
+  </si>
+  <si>
+    <t>Mukul Gopinath</t>
+  </si>
+  <si>
+    <t>mukul.gopinath@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011603</t>
+  </si>
+  <si>
+    <t>Ravi Kumar</t>
+  </si>
+  <si>
+    <t>ravik6719@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011604</t>
+  </si>
+  <si>
+    <t>Mittali Verma</t>
+  </si>
+  <si>
+    <t>mittali.verma@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011605</t>
+  </si>
+  <si>
+    <t>Mukesh Jha</t>
+  </si>
+  <si>
+    <t>dbamkj10@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011606</t>
+  </si>
+  <si>
+    <t>Vaibhav Kumar Jain</t>
+  </si>
+  <si>
+    <t>vaibhavkumar.jain@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011607</t>
+  </si>
+  <si>
+    <t>Suresh Sweb</t>
+  </si>
+  <si>
+    <t>sureshsweb@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011608</t>
+  </si>
+  <si>
+    <t>Kiran Kumar</t>
+  </si>
+  <si>
+    <t>kirankumar18011991@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011609</t>
+  </si>
+  <si>
+    <t>Nilesh Deo</t>
+  </si>
+  <si>
+    <t>nilesh.deo@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011610</t>
+  </si>
+  <si>
+    <t>Shashank Joshi</t>
+  </si>
+  <si>
+    <t>shashankjoshi45@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011611</t>
+  </si>
+  <si>
+    <t>Bhupati Patel</t>
+  </si>
+  <si>
+    <t>bhupatipatel009@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011612</t>
+  </si>
+  <si>
+    <t>Siddiraju Naveen</t>
+  </si>
+  <si>
+    <t>siddirajunaveen@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011613</t>
+  </si>
+  <si>
+    <t>Madan Kapoor</t>
+  </si>
+  <si>
+    <t>madankapoor@outlook.in</t>
+  </si>
+  <si>
+    <t>BDHF12011614</t>
+  </si>
+  <si>
+    <t>Nitish Kulkarni</t>
+  </si>
+  <si>
+    <t>nitzzkulkarni@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011615</t>
+  </si>
+  <si>
+    <t>Shubham Dhingra</t>
+  </si>
+  <si>
+    <t>shbhmdhngr@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011616</t>
+  </si>
+  <si>
+    <t>Lovely Chakri</t>
+  </si>
+  <si>
+    <t>lovelychakri@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011617</t>
+  </si>
+  <si>
+    <t>Sarkar Suman</t>
+  </si>
+  <si>
+    <t>sarkar.suman008@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011618</t>
+  </si>
+  <si>
+    <t>Ayush Kushwaha</t>
+  </si>
+  <si>
+    <t>mrayushkushwaha@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011619</t>
+  </si>
+  <si>
+    <t>Nitesh Rana</t>
+  </si>
+  <si>
+    <t>rananitesh8@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011620</t>
+  </si>
+  <si>
+    <t>Ishyam Agrawal</t>
+  </si>
+  <si>
+    <t>ishyamagrawal@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011621</t>
+  </si>
+  <si>
+    <t>Ashwini Kumar</t>
+  </si>
+  <si>
+    <t>ash.darkstar99@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011622</t>
   </si>
   <si>
     <t>Vijay</t>
   </si>
   <si>
-    <t>vijay.klyn@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111635</t>
-  </si>
-  <si>
-    <t>Shashank</t>
-  </si>
-  <si>
-    <t>shashank.vyas10@gmail.com</t>
-  </si>
-  <si>
-    <t>DPC20111636</t>
+    <t>vijayprwls@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011623</t>
+  </si>
+  <si>
+    <t>Joe Inigo Felix G</t>
+  </si>
+  <si>
+    <t>g.joefelix@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011624</t>
+  </si>
+  <si>
+    <t>Raagavendra Prabu</t>
+  </si>
+  <si>
+    <t>a.raagav39@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011625</t>
+  </si>
+  <si>
+    <t>Shafiudin Syed Mohammad</t>
+  </si>
+  <si>
+    <t>shafi.sm.jh@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011626</t>
+  </si>
+  <si>
+    <t>Ishant Hangloo</t>
+  </si>
+  <si>
+    <t>ishant.hangloo7@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011627</t>
+  </si>
+  <si>
+    <t>Rakesh Salimpur</t>
+  </si>
+  <si>
+    <t>rakeshsalimpur@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011628</t>
+  </si>
+  <si>
+    <t>Pavan</t>
+  </si>
+  <si>
+    <t>tpavan208@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011629</t>
+  </si>
+  <si>
+    <t>Satish Kumar Anamala</t>
+  </si>
+  <si>
+    <t>satishkumaranamala@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011630</t>
+  </si>
+  <si>
+    <t>Patil Rajs</t>
+  </si>
+  <si>
+    <t>rajs.patil7@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011631</t>
+  </si>
+  <si>
+    <t>Muppalla Giresh</t>
+  </si>
+  <si>
+    <t>muppallagiresh@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011632</t>
+  </si>
+  <si>
+    <t>Aniket Shirsat</t>
+  </si>
+  <si>
+    <t>anidroid2@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011633</t>
+  </si>
+  <si>
+    <t>Ajay Vinnu Bojedla</t>
+  </si>
+  <si>
+    <t>ajayvinnu.bojedla@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011634</t>
+  </si>
+  <si>
+    <t>Sandesh Jadhav</t>
+  </si>
+  <si>
+    <t>sandeshaj8@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011635</t>
+  </si>
+  <si>
+    <t>Alice Tinna</t>
+  </si>
+  <si>
+    <t>alicetinna@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011636</t>
+  </si>
+  <si>
+    <t>Akshay Zala</t>
+  </si>
+  <si>
+    <t>akshay.zala26@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011637</t>
+  </si>
+  <si>
+    <t>Rishi Gurvinder</t>
+  </si>
+  <si>
+    <t>rishi.gurvinder.2331@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011638</t>
+  </si>
+  <si>
+    <t>Biswajit Patra</t>
+  </si>
+  <si>
+    <t>patra.biswajit_1987@yahoo.com</t>
+  </si>
+  <si>
+    <t>BDHF12011639</t>
+  </si>
+  <si>
+    <t>Sumit Rauniiyar</t>
+  </si>
+  <si>
+    <t>rauniyar555@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011640</t>
+  </si>
+  <si>
+    <t>Khusboo Rai</t>
+  </si>
+  <si>
+    <t>khushboo.rai@sgs.com</t>
+  </si>
+  <si>
+    <t>BDHF12011641</t>
+  </si>
+  <si>
+    <t>Saurabh Kumar</t>
+  </si>
+  <si>
+    <t>saurabhv95@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011642</t>
+  </si>
+  <si>
+    <t>Sagar Nammi</t>
+  </si>
+  <si>
+    <t>sagar.nammi@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011643</t>
+  </si>
+  <si>
+    <t>Sridaran Chandrasekar</t>
+  </si>
+  <si>
+    <t>mail2sridar@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011644</t>
+  </si>
+  <si>
+    <t>Tarakant Kapgate</t>
+  </si>
+  <si>
+    <t>tkapgate@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011645</t>
+  </si>
+  <si>
+    <t>Dsv Dinesh</t>
+  </si>
+  <si>
+    <t>dineshdsv218@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011646</t>
+  </si>
+  <si>
+    <t>Suryakanth Reddy</t>
+  </si>
+  <si>
+    <t>nsuryakanthreddy@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011647</t>
+  </si>
+  <si>
+    <t>Anirudh Peddibhotla</t>
+  </si>
+  <si>
+    <t>anirudhped97@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011648</t>
+  </si>
+  <si>
+    <t>Shrishail Nimbalkar</t>
+  </si>
+  <si>
+    <t>shrishail.nimbalkar@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011649</t>
+  </si>
+  <si>
+    <t>Manoj Bandam</t>
+  </si>
+  <si>
+    <t>manoj.bandam12@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011650</t>
+  </si>
+  <si>
+    <t>Jagdeesh Jaisinghani</t>
+  </si>
+  <si>
+    <t>jagdeesh.jaisinghani@oracle.com</t>
+  </si>
+  <si>
+    <t>BDHF12011651</t>
+  </si>
+  <si>
+    <t>Omkar Kakade</t>
+  </si>
+  <si>
+    <t>okakade@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011652</t>
+  </si>
+  <si>
+    <t>Nagaraju Samudrala</t>
+  </si>
+  <si>
+    <t>nr.samudrala@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011653</t>
+  </si>
+  <si>
+    <t>Tina Dasgupta</t>
+  </si>
+  <si>
+    <t>dasgupta.tina@gmail.com</t>
+  </si>
+  <si>
+    <t>BDHF12011654</t>
+  </si>
+  <si>
+    <t>Bhavik</t>
+  </si>
+  <si>
+    <t>bhavike3781@yahoo.com</t>
+  </si>
+  <si>
+    <t>BDHF12011655</t>
+  </si>
+  <si>
+    <t>Samim Khan</t>
+  </si>
+  <si>
+    <t>samimkhan1988@gmail.com</t>
+  </si>
+  <si>
+    <t>Business Analytics Foundation Certification</t>
+  </si>
+  <si>
+    <t>BAFC12011600</t>
+  </si>
+  <si>
+    <t>Sm Pruthvisha</t>
+  </si>
+  <si>
+    <t>pruthvi007.sm@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011601</t>
+  </si>
+  <si>
+    <t>Nikita Borana</t>
+  </si>
+  <si>
+    <t>nikita.borana@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011602</t>
+  </si>
+  <si>
+    <t>Faraaz Mohammed</t>
+  </si>
+  <si>
+    <t>mdfaraaz@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011603</t>
+  </si>
+  <si>
+    <t>Satish Allumallu</t>
+  </si>
+  <si>
+    <t>satish.allumallu@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011604</t>
+  </si>
+  <si>
+    <t>Amzy Gawade</t>
+  </si>
+  <si>
+    <t>amey911@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011605</t>
+  </si>
+  <si>
+    <t>Sidharth Premila</t>
+  </si>
+  <si>
+    <t>siddharthpremila@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011606</t>
+  </si>
+  <si>
+    <t>Ashwin Kumar</t>
+  </si>
+  <si>
+    <t>ashwin265@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011607</t>
+  </si>
+  <si>
+    <t>Srini Vasan</t>
+  </si>
+  <si>
+    <t>srini7198@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011608</t>
+  </si>
+  <si>
+    <t>Nitish Sinha</t>
+  </si>
+  <si>
+    <t>nsnitishsinha9@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011609</t>
+  </si>
+  <si>
+    <t>Ankit Singh</t>
+  </si>
+  <si>
+    <t>ank.bit93@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011610</t>
+  </si>
+  <si>
+    <t>Mazid Khan</t>
+  </si>
+  <si>
+    <t>mazidkhan27@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011611</t>
+  </si>
+  <si>
+    <t>Midhun Abraham</t>
+  </si>
+  <si>
+    <t>mailmhnc@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011612</t>
+  </si>
+  <si>
+    <t>Surya Pothuraju</t>
+  </si>
+  <si>
+    <t>surya.pothuraju@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011613</t>
+  </si>
+  <si>
+    <t>Dheeraj Sharma</t>
+  </si>
+  <si>
+    <t>dheerajsharma251990@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011614</t>
+  </si>
+  <si>
+    <t>Balaji S</t>
+  </si>
+  <si>
+    <t>scorbalaji@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011615</t>
+  </si>
+  <si>
+    <t>Tinesh Kumar</t>
+  </si>
+  <si>
+    <t>tinesh13@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011616</t>
+  </si>
+  <si>
+    <t>Soma Nayak</t>
+  </si>
+  <si>
+    <t>somanayak81@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011617</t>
+  </si>
+  <si>
+    <t>Rahul More</t>
+  </si>
+  <si>
+    <t>morerahul5889@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011618</t>
+  </si>
+  <si>
+    <t>Kishan Gopal</t>
+  </si>
+  <si>
+    <t>kishanfeb10@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011619</t>
+  </si>
+  <si>
+    <t>Radhika K</t>
+  </si>
+  <si>
+    <t>radhikakthottasseril@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011620</t>
+  </si>
+  <si>
+    <t>Abhishek Rawat</t>
+  </si>
+  <si>
+    <t>abhishekrawat4@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011621</t>
+  </si>
+  <si>
+    <t>Ninayak</t>
+  </si>
+  <si>
+    <t>ninayak@deloitte.com</t>
+  </si>
+  <si>
+    <t>BAFC12011622</t>
+  </si>
+  <si>
+    <t>Rajesh Telikicherla</t>
+  </si>
+  <si>
+    <t>rajeshtelikicherla@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011623</t>
+  </si>
+  <si>
+    <t>Mayukh Paul</t>
+  </si>
+  <si>
+    <t>mayukh.paul@breakbag.com</t>
+  </si>
+  <si>
+    <t>BAFC12011624</t>
+  </si>
+  <si>
+    <t>Nidthankachan@Gmail.Com</t>
+  </si>
+  <si>
+    <t>nidthankachan@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011625</t>
+  </si>
+  <si>
+    <t>Sanoob Sidiq</t>
+  </si>
+  <si>
+    <t>sanoobsidiq@live.com</t>
+  </si>
+  <si>
+    <t>BAFC12011626</t>
+  </si>
+  <si>
+    <t>Christopher Anand</t>
+  </si>
+  <si>
+    <t>christomech@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011627</t>
+  </si>
+  <si>
+    <t>Pradeep S</t>
+  </si>
+  <si>
+    <t>pradhu26@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011628</t>
+  </si>
+  <si>
+    <t>Abhijit Singh</t>
+  </si>
+  <si>
+    <t>abhijit2311647@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011629</t>
+  </si>
+  <si>
+    <t>Vinoth Kumaravadivel</t>
+  </si>
+  <si>
+    <t>vinoth.kmd@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011630</t>
+  </si>
+  <si>
+    <t>Nisarg</t>
+  </si>
+  <si>
+    <t>nisargformba@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011631</t>
+  </si>
+  <si>
+    <t>Krishna Chaitanya</t>
+  </si>
+  <si>
+    <t>kolanu.chaitanya@gmail.com</t>
+  </si>
+  <si>
+    <t>BAFC12011632</t>
   </si>
 </sst>
 </file>
@@ -378,7 +849,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -400,13 +871,6 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="12.1"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -416,27 +880,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -470,7 +919,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -483,66 +932,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -551,40 +940,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B124" activeCellId="0" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.0102040816326"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.6836734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="44.734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.0102040816326"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -601,7 +990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -618,7 +1007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -635,7 +1024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -652,7 +1041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -669,7 +1058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -686,7 +1075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -703,7 +1092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -720,7 +1109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -737,7 +1126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -754,7 +1143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -771,7 +1160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -788,7 +1177,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -805,7 +1194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -822,7 +1211,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -839,7 +1228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -856,7 +1245,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -873,7 +1262,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -890,7 +1279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -907,7 +1296,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -924,7 +1313,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
@@ -941,7 +1330,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
@@ -958,7 +1347,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
@@ -975,7 +1364,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -992,7 +1381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1009,7 +1398,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -1026,7 +1415,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>85</v>
       </c>
@@ -1043,7 +1432,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
@@ -1060,7 +1449,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
@@ -1077,7 +1466,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
@@ -1094,7 +1483,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
@@ -1111,7 +1500,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>100</v>
       </c>
@@ -1128,7 +1517,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>103</v>
       </c>
@@ -1145,7 +1534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>106</v>
       </c>
@@ -1162,7 +1551,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
@@ -1179,7 +1568,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>112</v>
       </c>
@@ -1196,7 +1585,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>115</v>
       </c>
@@ -1211,6 +1600,890 @@
       </c>
       <c r="E38" s="1" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
